--- a/xlsx/阿爾巴尼亞_intext.xlsx
+++ b/xlsx/阿爾巴尼亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿爾及利亞</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿爾巴尼亞</t>
+    <t>体育运动_体育运动_南非_阿爾巴尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
@@ -266,30 +266,6 @@
     <t>美元</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
-  </si>
-  <si>
-    <t>各国国内生产总值列表 (国际汇率)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (国际汇率)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
   </si>
   <si>
@@ -2234,10 +2210,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -2318,10 +2318,10 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -2330,6 +2330,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -2366,12 +2372,6 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
@@ -2414,18 +2414,18 @@
     <t>賽普勒斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -2444,10 +2444,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2504,16 +2504,16 @@
     <t>色雷斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -4131,7 +4131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5461,7 +5461,7 @@
         <v>90</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5490,7 +5490,7 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -5548,7 +5548,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -5577,7 +5577,7 @@
         <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -5606,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -5664,7 +5664,7 @@
         <v>104</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -5722,7 +5722,7 @@
         <v>108</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -5751,7 +5751,7 @@
         <v>110</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -5838,7 +5838,7 @@
         <v>116</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -5867,7 +5867,7 @@
         <v>118</v>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -5896,7 +5896,7 @@
         <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -5925,7 +5925,7 @@
         <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -5954,7 +5954,7 @@
         <v>124</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -5983,7 +5983,7 @@
         <v>126</v>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -6012,7 +6012,7 @@
         <v>128</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -6041,7 +6041,7 @@
         <v>130</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -6070,7 +6070,7 @@
         <v>132</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -6099,7 +6099,7 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -6128,7 +6128,7 @@
         <v>136</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -6186,7 +6186,7 @@
         <v>140</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -6215,7 +6215,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -6244,7 +6244,7 @@
         <v>144</v>
       </c>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -6302,7 +6302,7 @@
         <v>148</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6331,7 +6331,7 @@
         <v>150</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -6360,7 +6360,7 @@
         <v>152</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6534,7 +6534,7 @@
         <v>164</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -6563,7 +6563,7 @@
         <v>166</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -6650,7 +6650,7 @@
         <v>172</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -6679,7 +6679,7 @@
         <v>174</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6702,13 +6702,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -6731,13 +6731,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6760,13 +6760,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6789,13 +6789,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6818,10 +6818,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -6853,7 +6853,7 @@
         <v>184</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -6882,7 +6882,7 @@
         <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6911,7 +6911,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -6940,7 +6940,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -6969,7 +6969,7 @@
         <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -7027,7 +7027,7 @@
         <v>196</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -7056,7 +7056,7 @@
         <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -7085,7 +7085,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7143,7 +7143,7 @@
         <v>204</v>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -7172,7 +7172,7 @@
         <v>206</v>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7201,7 +7201,7 @@
         <v>208</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -7259,7 +7259,7 @@
         <v>212</v>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -7288,7 +7288,7 @@
         <v>214</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -7317,7 +7317,7 @@
         <v>216</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -7346,7 +7346,7 @@
         <v>218</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -7462,7 +7462,7 @@
         <v>226</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -7491,7 +7491,7 @@
         <v>228</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -7520,7 +7520,7 @@
         <v>230</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -7549,7 +7549,7 @@
         <v>232</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -7578,7 +7578,7 @@
         <v>234</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -7607,7 +7607,7 @@
         <v>236</v>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -7630,13 +7630,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="G121" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -7659,13 +7659,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -7688,13 +7688,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7717,13 +7717,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7746,13 +7746,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -7868,7 +7868,7 @@
         <v>252</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7955,7 +7955,7 @@
         <v>258</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7984,7 +7984,7 @@
         <v>260</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -8071,7 +8071,7 @@
         <v>266</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -8100,7 +8100,7 @@
         <v>268</v>
       </c>
       <c r="G137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -8216,7 +8216,7 @@
         <v>276</v>
       </c>
       <c r="G141" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -8274,7 +8274,7 @@
         <v>280</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8332,7 +8332,7 @@
         <v>284</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -8448,7 +8448,7 @@
         <v>292</v>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -8506,7 +8506,7 @@
         <v>296</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8564,7 +8564,7 @@
         <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -8593,7 +8593,7 @@
         <v>302</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -8616,13 +8616,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="G155" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -8645,10 +8645,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8674,13 +8674,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -8703,13 +8703,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -8732,13 +8732,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8767,7 +8767,7 @@
         <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8790,13 +8790,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8819,13 +8819,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8848,13 +8848,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8877,13 +8877,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8906,13 +8906,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -8941,7 +8941,7 @@
         <v>322</v>
       </c>
       <c r="G166" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8970,7 +8970,7 @@
         <v>324</v>
       </c>
       <c r="G167" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -8999,7 +8999,7 @@
         <v>326</v>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -9028,7 +9028,7 @@
         <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -9057,7 +9057,7 @@
         <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -9086,7 +9086,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -9115,7 +9115,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -9144,7 +9144,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9202,7 +9202,7 @@
         <v>340</v>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -9225,10 +9225,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9254,13 +9254,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -9283,10 +9283,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9312,13 +9312,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -9341,13 +9341,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -9428,13 +9428,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -9457,13 +9457,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -9486,10 +9486,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9515,10 +9515,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9550,7 +9550,7 @@
         <v>360</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9602,13 +9602,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -9631,10 +9631,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9660,10 +9660,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -9689,10 +9689,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9718,13 +9718,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -9782,7 +9782,7 @@
         <v>374</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9805,13 +9805,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9834,10 +9834,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9863,13 +9863,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -9892,10 +9892,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9921,13 +9921,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>332</v>
+        <v>26</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9950,10 +9950,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9979,13 +9979,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -10008,10 +10008,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10037,13 +10037,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>26</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -10101,7 +10101,7 @@
         <v>392</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10159,7 +10159,7 @@
         <v>396</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -10188,7 +10188,7 @@
         <v>398</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -10217,7 +10217,7 @@
         <v>400</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -10304,7 +10304,7 @@
         <v>406</v>
       </c>
       <c r="G213" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -10333,7 +10333,7 @@
         <v>408</v>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -10362,7 +10362,7 @@
         <v>410</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -10391,7 +10391,7 @@
         <v>412</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -10449,7 +10449,7 @@
         <v>416</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10478,7 +10478,7 @@
         <v>418</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10507,7 +10507,7 @@
         <v>420</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10536,7 +10536,7 @@
         <v>422</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10652,7 +10652,7 @@
         <v>430</v>
       </c>
       <c r="G225" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -10710,7 +10710,7 @@
         <v>434</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10768,7 +10768,7 @@
         <v>438</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10820,13 +10820,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>89</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>90</v>
       </c>
       <c r="G231" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10849,13 +10849,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10878,13 +10878,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10907,10 +10907,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10936,13 +10936,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>97</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10971,7 +10971,7 @@
         <v>450</v>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -11058,7 +11058,7 @@
         <v>456</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -11116,7 +11116,7 @@
         <v>460</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -11174,7 +11174,7 @@
         <v>464</v>
       </c>
       <c r="G243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -11203,7 +11203,7 @@
         <v>466</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -11232,7 +11232,7 @@
         <v>468</v>
       </c>
       <c r="G245" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -11290,7 +11290,7 @@
         <v>472</v>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -11319,7 +11319,7 @@
         <v>474</v>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -11638,7 +11638,7 @@
         <v>496</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -11667,7 +11667,7 @@
         <v>498</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -11696,7 +11696,7 @@
         <v>500</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11754,7 +11754,7 @@
         <v>504</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11783,7 +11783,7 @@
         <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11812,7 +11812,7 @@
         <v>508</v>
       </c>
       <c r="G265" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11835,10 +11835,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>74</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11864,13 +11864,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11893,13 +11893,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11922,13 +11922,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -11951,10 +11951,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11986,7 +11986,7 @@
         <v>518</v>
       </c>
       <c r="G271" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -12044,7 +12044,7 @@
         <v>522</v>
       </c>
       <c r="G273" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -12073,7 +12073,7 @@
         <v>524</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -12096,13 +12096,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -12125,13 +12125,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -12154,13 +12154,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -12183,13 +12183,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -12212,13 +12212,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -12241,13 +12241,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -12270,13 +12270,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -12299,13 +12299,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12502,10 +12502,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>223</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>224</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12531,13 +12531,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -12560,10 +12560,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12589,13 +12589,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12618,13 +12618,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>232</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12653,7 +12653,7 @@
         <v>554</v>
       </c>
       <c r="G294" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12682,7 +12682,7 @@
         <v>556</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12711,7 +12711,7 @@
         <v>558</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12734,13 +12734,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>560</v>
+        <v>18</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12763,13 +12763,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>17</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="G298" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12792,13 +12792,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>18</v>
       </c>
       <c r="G299" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12821,13 +12821,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>565</v>
+        <v>41</v>
       </c>
       <c r="F300" t="s">
-        <v>566</v>
+        <v>42</v>
       </c>
       <c r="G300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12850,10 +12850,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>17</v>
+        <v>559</v>
       </c>
       <c r="F301" t="s">
-        <v>18</v>
+        <v>560</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12879,13 +12879,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>17</v>
+        <v>561</v>
       </c>
       <c r="F302" t="s">
-        <v>18</v>
+        <v>562</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12908,13 +12908,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>17</v>
+        <v>563</v>
       </c>
       <c r="F303" t="s">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12937,13 +12937,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>41</v>
+        <v>565</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -13030,7 +13030,7 @@
         <v>572</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -13059,7 +13059,7 @@
         <v>574</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -13146,7 +13146,7 @@
         <v>580</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -13175,7 +13175,7 @@
         <v>582</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -13262,7 +13262,7 @@
         <v>588</v>
       </c>
       <c r="G315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -13291,7 +13291,7 @@
         <v>590</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13320,7 +13320,7 @@
         <v>592</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13349,7 +13349,7 @@
         <v>594</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -13378,7 +13378,7 @@
         <v>596</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -13401,13 +13401,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>65</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>66</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13430,10 +13430,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -13459,13 +13459,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>43</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>44</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13488,13 +13488,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13517,13 +13517,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>65</v>
+        <v>601</v>
       </c>
       <c r="F324" t="s">
-        <v>66</v>
+        <v>602</v>
       </c>
       <c r="G324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13546,10 +13546,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F325" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13575,13 +13575,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>43</v>
+        <v>605</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13610,7 +13610,7 @@
         <v>608</v>
       </c>
       <c r="G327" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13668,7 +13668,7 @@
         <v>612</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13697,7 +13697,7 @@
         <v>614</v>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13784,7 +13784,7 @@
         <v>620</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -13900,7 +13900,7 @@
         <v>628</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13958,7 +13958,7 @@
         <v>632</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -14016,7 +14016,7 @@
         <v>636</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -14074,7 +14074,7 @@
         <v>640</v>
       </c>
       <c r="G343" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -14132,7 +14132,7 @@
         <v>644</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -14161,7 +14161,7 @@
         <v>646</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -14190,7 +14190,7 @@
         <v>648</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -14248,7 +14248,7 @@
         <v>652</v>
       </c>
       <c r="G349" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -14271,10 +14271,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>391</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>392</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -14300,13 +14300,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>393</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -14329,10 +14329,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14358,13 +14358,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -14387,13 +14387,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>399</v>
+        <v>5</v>
       </c>
       <c r="F354" t="s">
-        <v>400</v>
+        <v>6</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -14416,13 +14416,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>401</v>
+        <v>657</v>
       </c>
       <c r="F355" t="s">
-        <v>402</v>
+        <v>658</v>
       </c>
       <c r="G355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14445,13 +14445,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14474,13 +14474,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14503,13 +14503,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>5</v>
+        <v>655</v>
       </c>
       <c r="F358" t="s">
-        <v>6</v>
+        <v>656</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14532,10 +14532,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F359" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14561,13 +14561,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F360" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -14590,10 +14590,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F361" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14619,13 +14619,13 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="F362" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="G362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14683,7 +14683,7 @@
         <v>674</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14712,7 +14712,7 @@
         <v>676</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14741,7 +14741,7 @@
         <v>678</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14828,7 +14828,7 @@
         <v>684</v>
       </c>
       <c r="G369" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14857,7 +14857,7 @@
         <v>686</v>
       </c>
       <c r="G370" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14915,7 +14915,7 @@
         <v>690</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14973,7 +14973,7 @@
         <v>694</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -15002,7 +15002,7 @@
         <v>696</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -15031,7 +15031,7 @@
         <v>698</v>
       </c>
       <c r="G376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -15060,7 +15060,7 @@
         <v>700</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -15089,7 +15089,7 @@
         <v>702</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -15118,7 +15118,7 @@
         <v>704</v>
       </c>
       <c r="G379" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -15147,7 +15147,7 @@
         <v>706</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -15176,7 +15176,7 @@
         <v>708</v>
       </c>
       <c r="G381" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -15205,7 +15205,7 @@
         <v>710</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15234,7 +15234,7 @@
         <v>712</v>
       </c>
       <c r="G383" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -15257,13 +15257,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>713</v>
+        <v>563</v>
       </c>
       <c r="F384" t="s">
-        <v>714</v>
+        <v>564</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15286,10 +15286,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F385" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15315,13 +15315,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F386" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G386" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15344,13 +15344,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G387" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -15373,10 +15373,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>571</v>
+        <v>719</v>
       </c>
       <c r="F388" t="s">
-        <v>572</v>
+        <v>720</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15408,7 +15408,7 @@
         <v>722</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15437,7 +15437,7 @@
         <v>724</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15495,7 +15495,7 @@
         <v>728</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15524,7 +15524,7 @@
         <v>730</v>
       </c>
       <c r="G393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15553,7 +15553,7 @@
         <v>732</v>
       </c>
       <c r="G394" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15611,7 +15611,7 @@
         <v>736</v>
       </c>
       <c r="G396" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15640,7 +15640,7 @@
         <v>738</v>
       </c>
       <c r="G397" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15669,7 +15669,7 @@
         <v>740</v>
       </c>
       <c r="G398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -16104,7 +16104,7 @@
         <v>770</v>
       </c>
       <c r="G413" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -16133,7 +16133,7 @@
         <v>772</v>
       </c>
       <c r="G414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -16162,7 +16162,7 @@
         <v>774</v>
       </c>
       <c r="G415" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -16191,7 +16191,7 @@
         <v>776</v>
       </c>
       <c r="G416" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -16220,7 +16220,7 @@
         <v>778</v>
       </c>
       <c r="G417" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -16249,7 +16249,7 @@
         <v>780</v>
       </c>
       <c r="G418" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -16307,7 +16307,7 @@
         <v>784</v>
       </c>
       <c r="G420" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -16330,13 +16330,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>785</v>
+        <v>111</v>
       </c>
       <c r="F421" t="s">
-        <v>786</v>
+        <v>112</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16359,13 +16359,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F422" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16388,13 +16388,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F423" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16417,10 +16417,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F424" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G424" t="n">
         <v>4</v>
@@ -16446,13 +16446,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F425" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G425" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16475,13 +16475,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F426" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16504,13 +16504,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F427" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16533,13 +16533,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F428" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16562,10 +16562,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F429" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16591,13 +16591,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F430" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16620,13 +16620,13 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F431" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G431" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16649,13 +16649,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F432" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G432" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16678,13 +16678,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F433" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -16707,13 +16707,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16736,13 +16736,13 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16765,13 +16765,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F436" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16794,13 +16794,13 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F437" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -16823,10 +16823,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F438" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16852,10 +16852,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F439" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16881,13 +16881,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F440" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16910,13 +16910,13 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F441" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -16939,10 +16939,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F442" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16968,13 +16968,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F443" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16997,10 +16997,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F444" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17026,13 +17026,13 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F445" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -17055,10 +17055,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F446" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17084,10 +17084,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F447" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17113,10 +17113,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F448" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17142,10 +17142,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F449" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17171,10 +17171,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F450" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17200,10 +17200,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F451" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17229,13 +17229,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F452" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G452" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17258,13 +17258,13 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F453" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G453" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -17287,10 +17287,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F454" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17316,13 +17316,13 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F455" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -17345,13 +17345,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F456" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G456" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -17374,13 +17374,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F457" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G457" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17403,10 +17403,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F458" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G458" t="n">
         <v>5</v>
@@ -17432,13 +17432,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F459" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17461,13 +17461,13 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F460" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17490,10 +17490,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F461" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17519,10 +17519,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F462" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17548,13 +17548,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F463" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G463" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -17577,13 +17577,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F464" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G464" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17606,13 +17606,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F465" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G465" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17635,10 +17635,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F466" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17664,10 +17664,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F467" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17693,10 +17693,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F468" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17722,10 +17722,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F469" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17751,13 +17751,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F470" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G470" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17780,13 +17780,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F471" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17809,10 +17809,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F472" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17838,10 +17838,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F473" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17867,10 +17867,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F474" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17896,10 +17896,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F475" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17925,13 +17925,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>811</v>
+        <v>893</v>
       </c>
       <c r="F476" t="s">
-        <v>812</v>
+        <v>894</v>
       </c>
       <c r="G476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17954,13 +17954,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="F477" t="s">
-        <v>896</v>
+        <v>812</v>
       </c>
       <c r="G477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -17983,13 +17983,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F478" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -18012,13 +18012,13 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>817</v>
+        <v>897</v>
       </c>
       <c r="F479" t="s">
-        <v>818</v>
+        <v>898</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -18041,13 +18041,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>899</v>
+        <v>817</v>
       </c>
       <c r="F480" t="s">
-        <v>900</v>
+        <v>818</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -18070,13 +18070,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F481" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -18099,10 +18099,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F482" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18128,13 +18128,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F483" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -18157,10 +18157,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F484" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18186,10 +18186,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F485" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18215,10 +18215,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F486" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18244,13 +18244,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="F487" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="G487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -18273,13 +18273,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>913</v>
+        <v>869</v>
       </c>
       <c r="F488" t="s">
-        <v>914</v>
+        <v>870</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -18302,10 +18302,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F489" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18331,13 +18331,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>735</v>
+        <v>915</v>
       </c>
       <c r="F490" t="s">
-        <v>736</v>
+        <v>916</v>
       </c>
       <c r="G490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -18360,13 +18360,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>917</v>
+        <v>727</v>
       </c>
       <c r="F491" t="s">
-        <v>918</v>
+        <v>728</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -18389,10 +18389,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F492" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18418,13 +18418,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F493" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -18447,13 +18447,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F494" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -18476,10 +18476,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F495" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18505,13 +18505,13 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F496" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -18534,10 +18534,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>789</v>
+        <v>927</v>
       </c>
       <c r="F497" t="s">
-        <v>790</v>
+        <v>928</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18563,10 +18563,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>857</v>
+        <v>789</v>
       </c>
       <c r="F498" t="s">
-        <v>858</v>
+        <v>790</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18592,10 +18592,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F499" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18621,13 +18621,13 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>929</v>
+        <v>871</v>
       </c>
       <c r="F500" t="s">
-        <v>930</v>
+        <v>872</v>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -18650,10 +18650,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>329</v>
+        <v>929</v>
       </c>
       <c r="F501" t="s">
-        <v>330</v>
+        <v>930</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18679,13 +18679,13 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>931</v>
+        <v>321</v>
       </c>
       <c r="F502" t="s">
-        <v>932</v>
+        <v>322</v>
       </c>
       <c r="G502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -18708,13 +18708,13 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F503" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -18737,10 +18737,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F504" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18766,10 +18766,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F505" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18795,13 +18795,13 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F506" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -18824,10 +18824,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F507" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18853,10 +18853,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F508" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18882,13 +18882,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F509" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18911,13 +18911,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F510" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -18940,10 +18940,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>891</v>
+        <v>947</v>
       </c>
       <c r="F511" t="s">
-        <v>892</v>
+        <v>948</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18998,10 +18998,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>949</v>
+        <v>891</v>
       </c>
       <c r="F513" t="s">
-        <v>950</v>
+        <v>892</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -19027,10 +19027,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F514" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -19056,10 +19056,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F515" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -19085,10 +19085,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F516" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G516" t="n">
         <v>2</v>
@@ -19114,10 +19114,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F517" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G517" t="n">
         <v>2</v>
@@ -19143,13 +19143,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F518" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19172,13 +19172,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F519" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G519" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19201,13 +19201,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F520" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19230,13 +19230,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F521" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19259,13 +19259,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F522" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G522" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19288,13 +19288,13 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F523" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -19317,10 +19317,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F524" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19346,13 +19346,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>811</v>
+        <v>971</v>
       </c>
       <c r="F525" t="s">
-        <v>812</v>
+        <v>972</v>
       </c>
       <c r="G525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19381,7 +19381,7 @@
         <v>812</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -19404,10 +19404,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>891</v>
+        <v>811</v>
       </c>
       <c r="F527" t="s">
-        <v>892</v>
+        <v>812</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19462,10 +19462,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>973</v>
+        <v>891</v>
       </c>
       <c r="F529" t="s">
-        <v>974</v>
+        <v>892</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19491,10 +19491,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="F530" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19520,10 +19520,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F531" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19549,10 +19549,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="F532" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19578,10 +19578,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="F533" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19607,10 +19607,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F534" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19636,10 +19636,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>133</v>
+        <v>957</v>
       </c>
       <c r="F535" t="s">
-        <v>134</v>
+        <v>958</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19665,10 +19665,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>789</v>
+        <v>125</v>
       </c>
       <c r="F536" t="s">
-        <v>790</v>
+        <v>126</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19694,10 +19694,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>857</v>
+        <v>789</v>
       </c>
       <c r="F537" t="s">
-        <v>858</v>
+        <v>790</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19723,10 +19723,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F538" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19752,10 +19752,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>735</v>
+        <v>871</v>
       </c>
       <c r="F539" t="s">
-        <v>736</v>
+        <v>872</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19781,10 +19781,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>869</v>
+        <v>727</v>
       </c>
       <c r="F540" t="s">
-        <v>870</v>
+        <v>728</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19810,10 +19810,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>977</v>
+        <v>869</v>
       </c>
       <c r="F541" t="s">
-        <v>978</v>
+        <v>870</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19839,10 +19839,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>933</v>
+        <v>977</v>
       </c>
       <c r="F542" t="s">
-        <v>934</v>
+        <v>978</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19868,10 +19868,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F543" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19897,10 +19897,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F544" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19926,13 +19926,13 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>979</v>
+        <v>937</v>
       </c>
       <c r="F545" t="s">
-        <v>980</v>
+        <v>938</v>
       </c>
       <c r="G545" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -19955,13 +19955,13 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F546" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -19984,13 +19984,13 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F547" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20013,13 +20013,13 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F548" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -20042,13 +20042,13 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F549" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G549" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H549" t="s">
         <v>4</v>
@@ -20071,13 +20071,13 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>737</v>
+        <v>987</v>
       </c>
       <c r="F550" t="s">
-        <v>738</v>
+        <v>988</v>
       </c>
       <c r="G550" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -20100,13 +20100,13 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>989</v>
+        <v>729</v>
       </c>
       <c r="F551" t="s">
-        <v>990</v>
+        <v>730</v>
       </c>
       <c r="G551" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -20129,13 +20129,13 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>945</v>
+        <v>989</v>
       </c>
       <c r="F552" t="s">
-        <v>946</v>
+        <v>990</v>
       </c>
       <c r="G552" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20158,10 +20158,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F553" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -20187,13 +20187,13 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="F554" t="s">
-        <v>992</v>
+        <v>954</v>
       </c>
       <c r="G554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H554" t="s">
         <v>4</v>
@@ -20216,13 +20216,13 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="F555" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
       <c r="G555" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H555" t="s">
         <v>4</v>
@@ -20245,13 +20245,13 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F556" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G556" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20274,10 +20274,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>419</v>
+        <v>963</v>
       </c>
       <c r="F557" t="s">
-        <v>420</v>
+        <v>964</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20303,10 +20303,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>993</v>
+        <v>411</v>
       </c>
       <c r="F558" t="s">
-        <v>994</v>
+        <v>412</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20332,10 +20332,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F559" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20361,10 +20361,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F560" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20390,13 +20390,13 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F561" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="s">
         <v>4</v>
@@ -20419,10 +20419,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F562" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G562" t="n">
         <v>2</v>
@@ -20448,13 +20448,13 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F563" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H563" t="s">
         <v>4</v>
@@ -20477,13 +20477,13 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F564" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H564" t="s">
         <v>4</v>
@@ -20506,10 +20506,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F565" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20535,13 +20535,13 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F566" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H566" t="s">
         <v>4</v>
@@ -20564,13 +20564,13 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F567" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H567" t="s">
         <v>4</v>
@@ -20593,10 +20593,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F568" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G568" t="n">
         <v>2</v>
@@ -20622,10 +20622,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F569" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G569" t="n">
         <v>2</v>
@@ -20651,13 +20651,13 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F570" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H570" t="s">
         <v>4</v>
@@ -20680,13 +20680,13 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F571" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G571" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -20709,13 +20709,13 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F572" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G572" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H572" t="s">
         <v>4</v>
@@ -20738,10 +20738,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F573" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20767,10 +20767,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F574" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20796,10 +20796,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F575" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20825,13 +20825,13 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F576" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20854,13 +20854,13 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F577" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -20883,10 +20883,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F578" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20912,10 +20912,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F579" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20941,10 +20941,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F580" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20970,13 +20970,13 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F581" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -20999,10 +20999,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F582" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G582" t="n">
         <v>2</v>
@@ -21028,10 +21028,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F583" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -21057,13 +21057,13 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F584" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H584" t="s">
         <v>4</v>
@@ -21086,10 +21086,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F585" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21115,10 +21115,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F586" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21144,10 +21144,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F587" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21173,13 +21173,13 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F588" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -21202,13 +21202,13 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F589" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H589" t="s">
         <v>4</v>
@@ -21231,13 +21231,13 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F590" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -21260,13 +21260,13 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F591" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -21289,10 +21289,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F592" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21318,10 +21318,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F593" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21347,10 +21347,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F594" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21376,10 +21376,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F595" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21405,10 +21405,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>945</v>
+        <v>1067</v>
       </c>
       <c r="F596" t="s">
-        <v>946</v>
+        <v>1068</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21434,13 +21434,13 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1069</v>
+        <v>945</v>
       </c>
       <c r="F597" t="s">
-        <v>1070</v>
+        <v>946</v>
       </c>
       <c r="G597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H597" t="s">
         <v>4</v>
@@ -21463,13 +21463,13 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F598" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -21492,10 +21492,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F599" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21521,13 +21521,13 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F600" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -21550,13 +21550,13 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F601" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -21579,10 +21579,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F602" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21608,10 +21608,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>789</v>
+        <v>1079</v>
       </c>
       <c r="F603" t="s">
-        <v>790</v>
+        <v>1080</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21637,13 +21637,13 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1081</v>
+        <v>789</v>
       </c>
       <c r="F604" t="s">
-        <v>1082</v>
+        <v>790</v>
       </c>
       <c r="G604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -21666,10 +21666,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F605" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G605" t="n">
         <v>2</v>
@@ -21695,13 +21695,13 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>973</v>
+        <v>1083</v>
       </c>
       <c r="F606" t="s">
-        <v>974</v>
+        <v>1084</v>
       </c>
       <c r="G606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -21724,10 +21724,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1085</v>
+        <v>973</v>
       </c>
       <c r="F607" t="s">
-        <v>1086</v>
+        <v>974</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21753,10 +21753,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F608" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21782,10 +21782,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F609" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21811,10 +21811,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F610" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21840,10 +21840,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F611" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21869,10 +21869,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F612" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21898,10 +21898,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F613" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21927,10 +21927,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F614" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21956,13 +21956,13 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F615" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -21985,13 +21985,13 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F616" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -22014,10 +22014,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F617" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22043,10 +22043,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F618" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22072,10 +22072,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F619" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22101,10 +22101,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F620" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22130,10 +22130,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F621" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22159,10 +22159,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F622" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22188,10 +22188,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F623" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22217,10 +22217,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F624" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22246,13 +22246,13 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F625" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -22275,13 +22275,13 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F626" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -22304,13 +22304,13 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F627" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G627" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -22333,13 +22333,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F628" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G628" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22362,13 +22362,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F629" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -22391,10 +22391,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F630" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22420,10 +22420,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F631" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22449,10 +22449,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F632" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22478,10 +22478,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F633" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22507,10 +22507,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F634" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22536,10 +22536,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F635" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22565,10 +22565,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F636" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22594,10 +22594,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F637" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22623,10 +22623,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F638" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22652,10 +22652,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F639" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22681,10 +22681,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F640" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22710,10 +22710,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F641" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22739,10 +22739,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F642" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22768,10 +22768,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F643" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22797,13 +22797,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F644" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G644" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -22826,13 +22826,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F645" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -22855,10 +22855,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F646" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22884,10 +22884,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F647" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22913,10 +22913,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1009</v>
+        <v>1165</v>
       </c>
       <c r="F648" t="s">
-        <v>1010</v>
+        <v>1166</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22942,10 +22942,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1167</v>
+        <v>1009</v>
       </c>
       <c r="F649" t="s">
-        <v>1168</v>
+        <v>1010</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22971,10 +22971,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F650" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23000,10 +23000,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F651" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23029,10 +23029,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F652" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23058,10 +23058,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F653" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23087,10 +23087,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F654" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23116,10 +23116,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F655" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23145,10 +23145,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F656" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23174,10 +23174,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F657" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23203,10 +23203,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F658" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23232,10 +23232,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F659" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23261,10 +23261,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F660" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23290,10 +23290,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F661" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23319,10 +23319,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F662" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23348,10 +23348,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F663" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23377,10 +23377,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F664" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23406,10 +23406,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F665" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23435,10 +23435,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F666" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23464,10 +23464,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F667" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23493,10 +23493,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F668" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23522,10 +23522,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F669" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23551,10 +23551,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F670" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23580,10 +23580,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F671" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23609,10 +23609,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F672" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23638,10 +23638,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F673" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23667,10 +23667,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F674" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23696,10 +23696,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F675" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23725,10 +23725,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F676" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23754,10 +23754,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F677" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -23783,10 +23783,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F678" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -23812,10 +23812,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F679" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -23841,10 +23841,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F680" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -23870,13 +23870,13 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F681" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G681" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -23899,13 +23899,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F682" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -23928,10 +23928,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F683" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -23957,10 +23957,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F684" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -23986,10 +23986,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F685" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24015,10 +24015,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F686" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24044,10 +24044,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F687" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24073,10 +24073,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F688" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24102,10 +24102,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F689" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24131,10 +24131,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F690" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24160,10 +24160,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F691" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24189,13 +24189,13 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F692" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G692" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -24221,15 +24221,44 @@
         <v>1253</v>
       </c>
       <c r="F693" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G693" t="n">
+        <v>34</v>
+      </c>
+      <c r="H693" t="s">
+        <v>4</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="s">
+        <v>0</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1</v>
+      </c>
+      <c r="D694" t="n">
+        <v>693</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F694" t="s">
         <v>1255</v>
       </c>
-      <c r="G693" t="n">
-        <v>1</v>
-      </c>
-      <c r="H693" t="s">
-        <v>4</v>
-      </c>
-      <c r="I693" t="n">
+      <c r="G694" t="n">
+        <v>1</v>
+      </c>
+      <c r="H694" t="s">
+        <v>4</v>
+      </c>
+      <c r="I694" t="n">
         <v>3</v>
       </c>
     </row>
